--- a/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.91196564545139</v>
+        <v>90.03655511887858</v>
       </c>
       <c r="D2" t="n">
-        <v>1.277552627663763</v>
+        <v>1.407363169974295</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.95892180550429</v>
+        <v>88.87759311111989</v>
       </c>
       <c r="D3" t="n">
-        <v>1.26088805262565</v>
+        <v>1.504551706671513</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.92116849857008</v>
+        <v>88.08402006399166</v>
       </c>
       <c r="D4" t="n">
-        <v>1.556088833230093</v>
+        <v>1.461527800274028</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.09382231451602</v>
+        <v>86.73364491755379</v>
       </c>
       <c r="D5" t="n">
-        <v>1.46827345096801</v>
+        <v>1.377978757109966</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.14846857130657</v>
+        <v>85.96383503804951</v>
       </c>
       <c r="D6" t="n">
-        <v>1.332871193253983</v>
+        <v>1.299957146863835</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.88580278111543</v>
+        <v>84.71460589222207</v>
       </c>
       <c r="D7" t="n">
-        <v>1.399661952825427</v>
+        <v>1.496809672501382</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.75811218941122</v>
+        <v>84.01361779231918</v>
       </c>
       <c r="D8" t="n">
-        <v>1.592772316043854</v>
+        <v>1.453238040027762</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.86598745667618</v>
+        <v>82.88288309028212</v>
       </c>
       <c r="D9" t="n">
-        <v>1.447980666562374</v>
+        <v>1.545241587592345</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.89824641574697</v>
+        <v>81.98263586057709</v>
       </c>
       <c r="D10" t="n">
-        <v>1.479185228101614</v>
+        <v>1.636461510382405</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.13961713380746</v>
+        <v>81.01976014877698</v>
       </c>
       <c r="D11" t="n">
-        <v>1.533234163358747</v>
+        <v>1.643648726661939</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.02357780520558</v>
+        <v>79.88223705569266</v>
       </c>
       <c r="D12" t="n">
-        <v>1.598378320129267</v>
+        <v>1.632584213724235</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.81649273730046</v>
+        <v>79.07976640874671</v>
       </c>
       <c r="D13" t="n">
-        <v>1.731464133686187</v>
+        <v>1.338062449933358</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.75776543106517</v>
+        <v>77.44632881631688</v>
       </c>
       <c r="D14" t="n">
-        <v>1.91667453327941</v>
+        <v>1.809584360528958</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.03602743821864</v>
+        <v>76.82082251890877</v>
       </c>
       <c r="D15" t="n">
-        <v>1.617881531385517</v>
+        <v>1.662919267849159</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.07012662211542</v>
+        <v>75.79982434384611</v>
       </c>
       <c r="D16" t="n">
-        <v>1.689445025225624</v>
+        <v>1.495398854750794</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.88104163144718</v>
+        <v>74.83558664960736</v>
       </c>
       <c r="D17" t="n">
-        <v>1.815048059684607</v>
+        <v>1.963706465905466</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.02794180839052</v>
+        <v>74.06756971499433</v>
       </c>
       <c r="D18" t="n">
-        <v>1.664746301617064</v>
+        <v>1.610149331578046</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.96917755615239</v>
+        <v>72.68992187133249</v>
       </c>
       <c r="D19" t="n">
-        <v>1.746931364245586</v>
+        <v>1.687830867479583</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.84175869514986</v>
+        <v>71.92450386428027</v>
       </c>
       <c r="D20" t="n">
-        <v>1.700054138101873</v>
+        <v>1.844895997600955</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.8312834717473</v>
+        <v>70.59449666265994</v>
       </c>
       <c r="D21" t="n">
-        <v>1.445407140114923</v>
+        <v>1.714500778223275</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.71200921739775</v>
+        <v>69.5956792027165</v>
       </c>
       <c r="D22" t="n">
-        <v>2.019400880172651</v>
+        <v>1.869471477176247</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.3109801239964</v>
+        <v>69.14184564377952</v>
       </c>
       <c r="D23" t="n">
-        <v>1.503476826674953</v>
+        <v>1.673821322929125</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.71511362412861</v>
+        <v>68.04938810479425</v>
       </c>
       <c r="D24" t="n">
-        <v>1.562124358226785</v>
+        <v>2.032771002898694</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.98433281347383</v>
+        <v>66.91564461016134</v>
       </c>
       <c r="D25" t="n">
-        <v>1.695624271430225</v>
+        <v>1.744230112932748</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.96046662644518</v>
+        <v>65.8712107181055</v>
       </c>
       <c r="D26" t="n">
-        <v>1.839756413382734</v>
+        <v>1.805489986496831</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.82610454196279</v>
+        <v>64.89016827030386</v>
       </c>
       <c r="D27" t="n">
-        <v>1.927440643288403</v>
+        <v>1.591952096536557</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.83433618864108</v>
+        <v>63.669017655668</v>
       </c>
       <c r="D28" t="n">
-        <v>1.923624001670091</v>
+        <v>1.758753451194346</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.10711677427035</v>
+        <v>63.13630869731038</v>
       </c>
       <c r="D29" t="n">
-        <v>1.897339237376215</v>
+        <v>1.81917238127706</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.94136260289998</v>
+        <v>61.7551210218386</v>
       </c>
       <c r="D30" t="n">
-        <v>2.059025817227232</v>
+        <v>1.913762038083578</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.96951082490983</v>
+        <v>61.03190415869214</v>
       </c>
       <c r="D31" t="n">
-        <v>1.827788760619515</v>
+        <v>1.703172471128082</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.89612510535415</v>
+        <v>59.91715510280946</v>
       </c>
       <c r="D32" t="n">
-        <v>1.876075526519105</v>
+        <v>2.15463900138556</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.90227513809035</v>
+        <v>58.91290068235347</v>
       </c>
       <c r="D33" t="n">
-        <v>2.161383485264921</v>
+        <v>1.895803656143132</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.3411920631377</v>
+        <v>58.14793495901096</v>
       </c>
       <c r="D34" t="n">
-        <v>1.896718497044517</v>
+        <v>2.048229516302438</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.51255755555757</v>
+        <v>57.11362298052017</v>
       </c>
       <c r="D35" t="n">
-        <v>2.015289408308785</v>
+        <v>1.789900737817728</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.25147939408944</v>
+        <v>56.15420772554388</v>
       </c>
       <c r="D36" t="n">
-        <v>1.943438806437038</v>
+        <v>1.946645081883958</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.86776734337571</v>
+        <v>54.64064942294591</v>
       </c>
       <c r="D37" t="n">
-        <v>2.073562599964304</v>
+        <v>2.139716580041577</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.13993793516669</v>
+        <v>54.24697847411501</v>
       </c>
       <c r="D38" t="n">
-        <v>2.140859208614194</v>
+        <v>1.922192574737903</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.14525822166802</v>
+        <v>52.80047271796743</v>
       </c>
       <c r="D39" t="n">
-        <v>1.946955962572016</v>
+        <v>2.295436159324534</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.0479950400981</v>
+        <v>51.74642976924756</v>
       </c>
       <c r="D40" t="n">
-        <v>2.231828002757995</v>
+        <v>2.108728601700397</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.88086857042365</v>
+        <v>51.22551831527205</v>
       </c>
       <c r="D41" t="n">
-        <v>2.222747036246178</v>
+        <v>2.051645558765509</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.80241644373956</v>
+        <v>49.67818442341434</v>
       </c>
       <c r="D42" t="n">
-        <v>2.199739535359593</v>
+        <v>2.082761618239337</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.66212488746212</v>
+        <v>48.75796182915084</v>
       </c>
       <c r="D43" t="n">
-        <v>2.01977986430646</v>
+        <v>2.179831190160714</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.91897301973403</v>
+        <v>48.09793091206244</v>
       </c>
       <c r="D44" t="n">
-        <v>2.355321164867208</v>
+        <v>2.228458465449475</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.72748967434138</v>
+        <v>46.93887366659706</v>
       </c>
       <c r="D45" t="n">
-        <v>2.460597313293547</v>
+        <v>2.144466251827572</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.57287815154449</v>
+        <v>46.08890816017831</v>
       </c>
       <c r="D46" t="n">
-        <v>2.414792573305338</v>
+        <v>2.265921522730763</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.87917906089555</v>
+        <v>44.94127609921895</v>
       </c>
       <c r="D47" t="n">
-        <v>2.147053514275155</v>
+        <v>2.292237131516921</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.72975138056332</v>
+        <v>44.1170308780565</v>
       </c>
       <c r="D48" t="n">
-        <v>2.250464056561382</v>
+        <v>2.283347185036412</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.98077695667754</v>
+        <v>43.0810012571441</v>
       </c>
       <c r="D49" t="n">
-        <v>2.265258029788001</v>
+        <v>2.485340530819908</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.74385322591411</v>
+        <v>41.55605047243344</v>
       </c>
       <c r="D50" t="n">
-        <v>2.096890569156905</v>
+        <v>2.266837413156843</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.84337977998941</v>
+        <v>40.84765803711178</v>
       </c>
       <c r="D51" t="n">
-        <v>2.328358289205416</v>
+        <v>2.343610654858595</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.19687992045382</v>
+        <v>39.62989653266406</v>
       </c>
       <c r="D52" t="n">
-        <v>2.743622210462224</v>
+        <v>2.370050294059741</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.31206812228587</v>
+        <v>39.17904726262278</v>
       </c>
       <c r="D53" t="n">
-        <v>2.397363859168633</v>
+        <v>2.664070410406107</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.8728720169423</v>
+        <v>38.03702032330312</v>
       </c>
       <c r="D54" t="n">
-        <v>2.22227005574318</v>
+        <v>2.556140541542355</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.75717893872098</v>
+        <v>36.67350869789154</v>
       </c>
       <c r="D55" t="n">
-        <v>2.35236476255894</v>
+        <v>2.564553864085024</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.44138041931659</v>
+        <v>35.90293578581309</v>
       </c>
       <c r="D56" t="n">
-        <v>2.783116286749191</v>
+        <v>2.518158795056971</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.20508025694774</v>
+        <v>34.82385132249573</v>
       </c>
       <c r="D57" t="n">
-        <v>2.406908691642802</v>
+        <v>2.415428053663537</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.88680534541841</v>
+        <v>33.77122417943538</v>
       </c>
       <c r="D58" t="n">
-        <v>2.461858868997715</v>
+        <v>2.697937609973537</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.95490121904154</v>
+        <v>32.9173296752861</v>
       </c>
       <c r="D59" t="n">
-        <v>2.42170725025231</v>
+        <v>2.43661124857276</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.53645508717221</v>
+        <v>32.02909622139646</v>
       </c>
       <c r="D60" t="n">
-        <v>2.39871282255662</v>
+        <v>2.292442030560019</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.0818545383244</v>
+        <v>30.99246339970821</v>
       </c>
       <c r="D61" t="n">
-        <v>2.516527375208306</v>
+        <v>2.416245460484855</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.75572599816121</v>
+        <v>29.71238385825543</v>
       </c>
       <c r="D62" t="n">
-        <v>2.494748771306146</v>
+        <v>2.589827037795289</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.58777446304592</v>
+        <v>28.53861445084462</v>
       </c>
       <c r="D63" t="n">
-        <v>2.811463695724401</v>
+        <v>2.41415375448949</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.48695744257254</v>
+        <v>27.83970818333992</v>
       </c>
       <c r="D64" t="n">
-        <v>2.768590215371128</v>
+        <v>2.751135690781275</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.76430003058584</v>
+        <v>26.80409197769532</v>
       </c>
       <c r="D65" t="n">
-        <v>2.848613375894571</v>
+        <v>3.011963856137101</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.80670303531177</v>
+        <v>25.70367177965735</v>
       </c>
       <c r="D66" t="n">
-        <v>2.421522049361373</v>
+        <v>2.978563883463782</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.86827089966901</v>
+        <v>24.54122882878119</v>
       </c>
       <c r="D67" t="n">
-        <v>3.099052983366824</v>
+        <v>2.677172738125322</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.09793077952816</v>
+        <v>24.41403237380648</v>
       </c>
       <c r="D68" t="n">
-        <v>2.547613147191371</v>
+        <v>2.605327713034347</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.67720792506865</v>
+        <v>22.83708009126106</v>
       </c>
       <c r="D69" t="n">
-        <v>2.640859343756084</v>
+        <v>2.93842934096128</v>
       </c>
     </row>
   </sheetData>
